--- a/support_files/ir_rating.xlsx
+++ b/support_files/ir_rating.xlsx
@@ -169,7 +169,7 @@
     <t xml:space="preserve">МТС</t>
   </si>
   <si>
-    <t xml:space="preserve">MBNK</t>
+    <t xml:space="preserve">MTSS</t>
   </si>
   <si>
     <t xml:space="preserve">Эталон</t>
@@ -1506,8 +1506,8 @@
   </sheetPr>
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2089,7 +2089,7 @@
       <c r="B56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="B62" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="3" t="s">
         <v>139</v>
       </c>
     </row>
